--- a/DataTest/Khám bệnh - CDDV/TC_01.xlsx
+++ b/DataTest/Khám bệnh - CDDV/TC_01.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HIS api automation\DataTest\Khám bệnh - CDDV\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\HIS api automation\DataTest\Khám bệnh - CDDV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0414FAF9-29A5-40B3-AC99-AEBC60345978}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E352974-C610-4204-AAE6-529E6E521533}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{794CA7EE-973C-4E52-B2EA-D86EA806D076}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11040" xr2:uid="{794CA7EE-973C-4E52-B2EA-D86EA806D076}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -711,33 +711,34 @@
   <dimension ref="A1:CD2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.85546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="35.77734375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="52.77734375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.21875" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="150.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="35.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="150.7109375" bestFit="1" customWidth="1"/>
     <col min="47" max="47" width="7" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="61.21875" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="61.28515625" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="59" max="59" width="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:82" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
@@ -985,7 +986,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:82" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>97</v>
       </c>
